--- a/data/Standings/standings_history.xlsx
+++ b/data/Standings/standings_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Documents\fantasy_football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFC1AE9-ADE2-4778-924C-535B4F8BE5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552EB39F-1F03-47D6-840F-325FA50A601B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:R673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
